--- a/Device_set.xlsx
+++ b/Device_set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heeyoung\PycharmProjects\Mk_Lot_Folder\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijung\PycharmProjects\MK_Lot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38311B-4316-43B7-B66E-BC7E13CCE648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFC550-4364-4965-96BF-9B9C8DBB2628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device_set" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>소자</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>L1</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -54,7 +50,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>L8</t>
+    <t>L0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1020,73 +1016,70 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -1115,7 +1108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>207</v>
       </c>
@@ -1144,7 +1137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>225</v>
       </c>
@@ -1173,7 +1166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>227</v>
       </c>
@@ -1202,7 +1195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>243</v>
       </c>
@@ -1231,7 +1224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>248</v>
       </c>
@@ -1260,7 +1253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>254</v>
       </c>
@@ -1289,7 +1282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>269</v>
       </c>
@@ -1318,7 +1311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>281</v>
       </c>
@@ -1347,7 +1340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>283</v>
       </c>
@@ -1376,7 +1369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>286</v>
       </c>
@@ -1405,7 +1398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>289</v>
       </c>
@@ -1434,7 +1427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>292</v>
       </c>
@@ -1463,7 +1456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>323</v>
       </c>
@@ -1492,7 +1485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>324</v>
       </c>
@@ -1521,7 +1514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>518</v>
       </c>
@@ -1550,7 +1543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>579</v>
       </c>
@@ -1579,7 +1572,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>594</v>
       </c>
@@ -1608,7 +1601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>661</v>
       </c>
@@ -1637,7 +1630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>668</v>
       </c>
@@ -1666,7 +1659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>676</v>
       </c>
@@ -1695,7 +1688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>677</v>
       </c>
@@ -1724,7 +1717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>807</v>
       </c>
@@ -1753,7 +1746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>812</v>
       </c>
@@ -1782,7 +1775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>844</v>
       </c>
@@ -1811,7 +1804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>851</v>
       </c>
@@ -1840,7 +1833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>892</v>
       </c>
@@ -1869,7 +1862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>911</v>
       </c>
@@ -1898,7 +1891,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>919</v>
       </c>
@@ -1927,7 +1920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>958</v>
       </c>
@@ -1956,7 +1949,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>983</v>
       </c>
@@ -1985,7 +1978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>1425</v>
       </c>
@@ -2014,7 +2007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>1103</v>
       </c>
@@ -2043,7 +2036,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>311</v>
       </c>
